--- a/Results/Regression_results.xlsx
+++ b/Results/Regression_results.xlsx
@@ -466,20 +466,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Санаторий Чайка</t>
+          <t>Ласточка</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-598.6333891752578</v>
+        <v>1625.426857142857</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2985231958762887</v>
+        <v>-0.8021428571428573</v>
       </c>
       <c r="E2" t="n">
-        <v>18.532</v>
+        <v>6.828</v>
       </c>
       <c r="F2" t="n">
-        <v>3.78</v>
+        <v>2.347</v>
       </c>
     </row>
     <row r="3">
@@ -488,20 +488,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Зеленогорск, ул.Экипажная</t>
+          <t>Ст. Морская 1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-613.3943298969073</v>
+        <v>76.25237203495639</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3064432989690722</v>
+        <v>-0.03661048689138581</v>
       </c>
       <c r="E3" t="n">
-        <v>7.345</v>
+        <v>2.297</v>
       </c>
       <c r="F3" t="n">
-        <v>2.458</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="4">
@@ -510,20 +510,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Санаторий Звездочка</t>
+          <t>Юный строитель</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-405.5328638497653</v>
+        <v>-815.0169827856027</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2018779342723005</v>
+        <v>0.4085133020344289</v>
       </c>
       <c r="E4" t="n">
-        <v>0.903</v>
+        <v>210.154</v>
       </c>
       <c r="F4" t="n">
-        <v>0.73</v>
+        <v>12.061</v>
       </c>
     </row>
     <row r="5">
@@ -532,20 +532,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Тарховский лесопарк</t>
+          <t>ДОЛ Заря</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1143.379166666667</v>
+        <v>-655.7022900763361</v>
       </c>
       <c r="D5" t="n">
-        <v>0.56875</v>
+        <v>0.3263358778625955</v>
       </c>
       <c r="E5" t="n">
-        <v>0.342</v>
+        <v>1.168</v>
       </c>
       <c r="F5" t="n">
-        <v>0.531</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="6">
@@ -554,20 +554,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ржавая канава</t>
+          <t>Солнечное-3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2015</v>
+        <v>-1130.800328358208</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.5642985074626863</v>
       </c>
       <c r="E6" t="n">
-        <v>16.745</v>
+        <v>7.706</v>
       </c>
       <c r="F6" t="n">
-        <v>3.35</v>
+        <v>2.684</v>
       </c>
     </row>
     <row r="7">
@@ -576,20 +576,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Юнтолово - 1</t>
+          <t>Ржавая канава</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-191.4909687184663</v>
+        <v>-2015</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0957618567103936</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E7" t="n">
-        <v>1.534</v>
+        <v>16.745</v>
       </c>
       <c r="F7" t="n">
-        <v>1.101</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="8">
@@ -598,20 +598,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Репино, Лермонтовский пр</t>
+          <t>Разлив 1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2319.285714285715</v>
+        <v>-1567.770531835207</v>
       </c>
       <c r="D8" t="n">
-        <v>1.151785714285714</v>
+        <v>0.7805505617977533</v>
       </c>
       <c r="E8" t="n">
-        <v>13.048</v>
+        <v>13.695</v>
       </c>
       <c r="F8" t="n">
-        <v>3.61</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="9">
@@ -620,20 +620,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Сан. Солнечное</t>
+          <t>Белоостровско-Сестрорецкая развязка</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1295.649011152416</v>
+        <v>705.8499999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6451078066914496</v>
+        <v>-0.35</v>
       </c>
       <c r="E9" t="n">
-        <v>17.113</v>
+        <v>2.793</v>
       </c>
       <c r="F9" t="n">
-        <v>3.538</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10">
@@ -642,20 +642,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>детсад № 80</t>
+          <t>ДОЛ Молодежный</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3191.479850746267</v>
+        <v>-545.7692307692308</v>
       </c>
       <c r="D10" t="n">
-        <v>1.588805970149253</v>
+        <v>0.2728365384615385</v>
       </c>
       <c r="E10" t="n">
-        <v>2.64</v>
+        <v>4.343</v>
       </c>
       <c r="F10" t="n">
-        <v>1.488</v>
+        <v>1.907</v>
       </c>
     </row>
     <row r="11">
@@ -664,20 +664,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ольгино - 1 </t>
+          <t>Санаторий Чайка</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-521.1748387096773</v>
+        <v>-598.6333891752578</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2594193548387096</v>
+        <v>0.2985231958762887</v>
       </c>
       <c r="E11" t="n">
-        <v>2.282</v>
+        <v>18.532</v>
       </c>
       <c r="F11" t="n">
-        <v>1.482</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="12">
@@ -686,20 +686,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Разлив 2</t>
+          <t>ГБДОУ №20</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1241.671641791045</v>
+        <v>-984.092331768388</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6149253731343283</v>
+        <v>0.4898278560250391</v>
       </c>
       <c r="E12" t="n">
-        <v>8.583</v>
+        <v>6.08</v>
       </c>
       <c r="F12" t="n">
-        <v>2.429</v>
+        <v>1.673</v>
       </c>
     </row>
     <row r="13">
@@ -708,20 +708,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ДОЛ Буревестник</t>
+          <t>Репино, Лермонтовский пр</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1128.12602739726</v>
+        <v>-2319.285714285715</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5625570776255705</v>
+        <v>1.151785714285714</v>
       </c>
       <c r="E13" t="n">
-        <v>11.253</v>
+        <v>13.048</v>
       </c>
       <c r="F13" t="n">
-        <v>3.105</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="14">
@@ -730,20 +730,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ДОЛ Заря</t>
+          <t>ДОЛ Лига</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-655.7022900763361</v>
+        <v>-1387.541666666667</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3263358778625955</v>
+        <v>0.6916666666666665</v>
       </c>
       <c r="E14" t="n">
-        <v>1.168</v>
+        <v>36.917</v>
       </c>
       <c r="F14" t="n">
-        <v>0.908</v>
+        <v>4.916</v>
       </c>
     </row>
     <row r="15">
@@ -752,20 +752,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Белоостровско-Сестрорецкая развязка</t>
+          <t xml:space="preserve">Парашютная улица </t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>705.8499999999999</v>
+        <v>-377.15433632287</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.35</v>
+        <v>0.1887174887892377</v>
       </c>
       <c r="E15" t="n">
-        <v>2.793</v>
+        <v>28.904</v>
       </c>
       <c r="F15" t="n">
-        <v>1.3</v>
+        <v>3.811</v>
       </c>
     </row>
     <row r="16">
@@ -774,20 +774,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Парашютная улица </t>
+          <t>Сан. Солнечное</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-377.15433632287</v>
+        <v>-1295.649011152416</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1887174887892377</v>
+        <v>0.6451078066914496</v>
       </c>
       <c r="E16" t="n">
-        <v>28.904</v>
+        <v>17.113</v>
       </c>
       <c r="F16" t="n">
-        <v>3.811</v>
+        <v>3.538</v>
       </c>
     </row>
     <row r="17">
@@ -796,20 +796,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Юный строитель</t>
+          <t>ДОЛ Луч</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-815.0169827856027</v>
+        <v>133.4198264669164</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4085133020344289</v>
+        <v>-0.06344007490636704</v>
       </c>
       <c r="E17" t="n">
-        <v>210.154</v>
+        <v>12.876</v>
       </c>
       <c r="F17" t="n">
-        <v>12.061</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="18">
@@ -818,20 +818,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Пляж Ласковый</t>
+          <t xml:space="preserve">Солнечное - 2 </t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3318.452142857143</v>
+        <v>-888.8235294117646</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.638571428571429</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="E18" t="n">
-        <v>0.695</v>
+        <v>4.044</v>
       </c>
       <c r="F18" t="n">
-        <v>0.799</v>
+        <v>1.662</v>
       </c>
     </row>
     <row r="19">
@@ -840,20 +840,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Солнечное -1</t>
+          <t>Санаторий Жемчужина</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2021</v>
+        <v>136.9976065573771</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.9999999999999998</v>
+        <v>-0.0653081967213115</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>12.468</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5</v>
+        <v>3.265</v>
       </c>
     </row>
     <row r="20">
@@ -862,20 +862,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Юнтолово - 2</t>
+          <t>Разлив 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1697.260714285715</v>
+        <v>1241.671641791045</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.8392857142857144</v>
+        <v>-0.6149253731343283</v>
       </c>
       <c r="E20" t="n">
-        <v>4.127</v>
+        <v>8.583</v>
       </c>
       <c r="F20" t="n">
-        <v>1.559</v>
+        <v>2.429</v>
       </c>
     </row>
     <row r="21">
@@ -884,20 +884,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Санаторий Жемчужина</t>
+          <t>Лисий нос</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>136.9976065573771</v>
+        <v>631.0608969072166</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0653081967213115</v>
+        <v>-0.312298969072165</v>
       </c>
       <c r="E21" t="n">
-        <v>12.468</v>
+        <v>1.015</v>
       </c>
       <c r="F21" t="n">
-        <v>3.265</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="22">
@@ -906,20 +906,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ДОЛ Молодежный</t>
+          <t>Тарховский лесопарк</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-545.7692307692308</v>
+        <v>-1143.379166666667</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2728365384615385</v>
+        <v>0.56875</v>
       </c>
       <c r="E22" t="n">
-        <v>4.343</v>
+        <v>0.342</v>
       </c>
       <c r="F22" t="n">
-        <v>1.907</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="23">
@@ -928,20 +928,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ст. Морская 1</t>
+          <t>Юнтолово - 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>76.25237203495639</v>
+        <v>1697.260714285715</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.03661048689138581</v>
+        <v>-0.8392857142857144</v>
       </c>
       <c r="E23" t="n">
-        <v>2.297</v>
+        <v>4.127</v>
       </c>
       <c r="F23" t="n">
-        <v>1.38</v>
+        <v>1.559</v>
       </c>
     </row>
     <row r="24">
@@ -950,20 +950,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ДОЛ Солнечный</t>
+          <t>Юнтолово - 1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-268.6628762541807</v>
+        <v>-191.4909687184663</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1344481605351171</v>
+        <v>0.0957618567103936</v>
       </c>
       <c r="E24" t="n">
-        <v>2.806</v>
+        <v>1.534</v>
       </c>
       <c r="F24" t="n">
-        <v>1.497</v>
+        <v>1.101</v>
       </c>
     </row>
     <row r="25">
@@ -972,20 +972,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Н.Белоостров</t>
+          <t>ДОЛ Солнечный</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-333.3724226804122</v>
+        <v>-268.6628762541807</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1662371134020618</v>
+        <v>0.1344481605351171</v>
       </c>
       <c r="E25" t="n">
-        <v>6.022</v>
+        <v>2.806</v>
       </c>
       <c r="F25" t="n">
-        <v>2.021</v>
+        <v>1.497</v>
       </c>
     </row>
     <row r="26">
@@ -994,20 +994,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Солнечное - 2 </t>
+          <t>детсад № 80</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-888.8235294117646</v>
+        <v>-3191.479850746267</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4411764705882353</v>
+        <v>1.588805970149253</v>
       </c>
       <c r="E26" t="n">
-        <v>4.044</v>
+        <v>2.64</v>
       </c>
       <c r="F26" t="n">
-        <v>1.662</v>
+        <v>1.488</v>
       </c>
     </row>
     <row r="27">
@@ -1016,20 +1016,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ДОЛ Дружных</t>
+          <t>Санаторий Пионер</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.25</v>
+        <v>-212.8836956521738</v>
       </c>
       <c r="D27" t="n">
-        <v>-0</v>
+        <v>0.1064009661835748</v>
       </c>
       <c r="E27" t="n">
-        <v>8.228999999999999</v>
+        <v>2.902</v>
       </c>
       <c r="F27" t="n">
-        <v>2.75</v>
+        <v>1.473</v>
       </c>
     </row>
     <row r="28">
@@ -1038,20 +1038,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Дубки</t>
+          <t>ДОЛ Дружных</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-898.5535714285713</v>
+        <v>1.25</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4464285714285714</v>
+        <v>-0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.742</v>
+        <v>8.228999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.654</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="29">
@@ -1060,20 +1060,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ласточка</t>
+          <t>Дубки</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1625.426857142857</v>
+        <v>-898.5535714285713</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.8021428571428573</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E29" t="n">
-        <v>6.828</v>
+        <v>0.742</v>
       </c>
       <c r="F29" t="n">
-        <v>2.347</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="30">
@@ -1082,20 +1082,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Санаторий Пионер</t>
+          <t xml:space="preserve">Ольгино - 1 </t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-212.8836956521738</v>
+        <v>-521.1748387096773</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1064009661835748</v>
+        <v>0.2594193548387096</v>
       </c>
       <c r="E30" t="n">
-        <v>2.902</v>
+        <v>2.282</v>
       </c>
       <c r="F30" t="n">
-        <v>1.473</v>
+        <v>1.482</v>
       </c>
     </row>
     <row r="31">
@@ -1104,20 +1104,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ДОЛ Лига</t>
+          <t>ДОЛ Буревестник</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-1387.541666666667</v>
+        <v>-1128.12602739726</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6916666666666665</v>
+        <v>0.5625570776255705</v>
       </c>
       <c r="E31" t="n">
-        <v>36.917</v>
+        <v>11.253</v>
       </c>
       <c r="F31" t="n">
-        <v>4.916</v>
+        <v>3.105</v>
       </c>
     </row>
     <row r="32">
@@ -1126,20 +1126,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Лисий нос</t>
+          <t>Санаторий Звездочка</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>631.0608969072166</v>
+        <v>-405.5328638497653</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.312298969072165</v>
+        <v>0.2018779342723005</v>
       </c>
       <c r="E32" t="n">
-        <v>1.015</v>
+        <v>0.903</v>
       </c>
       <c r="F32" t="n">
-        <v>0.827</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="33">
@@ -1148,20 +1148,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Разлив 1</t>
+          <t>Зеленогорск, ул.Экипажная</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-1567.770531835207</v>
+        <v>-613.3943298969073</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7805505617977533</v>
+        <v>0.3064432989690722</v>
       </c>
       <c r="E33" t="n">
-        <v>13.695</v>
+        <v>7.345</v>
       </c>
       <c r="F33" t="n">
-        <v>3.14</v>
+        <v>2.458</v>
       </c>
     </row>
     <row r="34">
@@ -1170,20 +1170,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ГБДОУ №20</t>
+          <t>Пляж Ласковый</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-984.092331768388</v>
+        <v>3318.452142857143</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4898278560250391</v>
+        <v>-1.638571428571429</v>
       </c>
       <c r="E34" t="n">
-        <v>6.08</v>
+        <v>0.695</v>
       </c>
       <c r="F34" t="n">
-        <v>1.673</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="35">
@@ -1192,20 +1192,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ДОЛ Луч</t>
+          <t>Н.Белоостров</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>133.4198264669164</v>
+        <v>-333.3724226804122</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.06344007490636704</v>
+        <v>0.1662371134020618</v>
       </c>
       <c r="E35" t="n">
-        <v>12.876</v>
+        <v>6.022</v>
       </c>
       <c r="F35" t="n">
-        <v>3.09</v>
+        <v>2.021</v>
       </c>
     </row>
     <row r="36">
@@ -1214,20 +1214,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Солнечное-3</t>
+          <t>Солнечное -1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-1130.800328358208</v>
+        <v>2021</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5642985074626863</v>
+        <v>-0.9999999999999998</v>
       </c>
       <c r="E36" t="n">
-        <v>7.706</v>
+        <v>0.5</v>
       </c>
       <c r="F36" t="n">
-        <v>2.684</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Regression_results.xlsx
+++ b/Results/Regression_results.xlsx
@@ -466,20 +466,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ласточка</t>
+          <t>Юный строитель</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1625.426857142857</v>
+        <v>-815.0169827856027</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8021428571428573</v>
+        <v>0.4085133020344289</v>
       </c>
       <c r="E2" t="n">
-        <v>6.828</v>
+        <v>210.154</v>
       </c>
       <c r="F2" t="n">
-        <v>2.347</v>
+        <v>12.061</v>
       </c>
     </row>
     <row r="3">
@@ -488,20 +488,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ст. Морская 1</t>
+          <t>детсад № 80</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>76.25237203495639</v>
+        <v>-3191.479850746267</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03661048689138581</v>
+        <v>1.588805970149253</v>
       </c>
       <c r="E3" t="n">
-        <v>2.297</v>
+        <v>2.64</v>
       </c>
       <c r="F3" t="n">
-        <v>1.38</v>
+        <v>1.488</v>
       </c>
     </row>
     <row r="4">
@@ -510,20 +510,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Юный строитель</t>
+          <t>Ласточка</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-815.0169827856027</v>
+        <v>1625.426857142857</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4085133020344289</v>
+        <v>-0.8021428571428573</v>
       </c>
       <c r="E4" t="n">
-        <v>210.154</v>
+        <v>6.828</v>
       </c>
       <c r="F4" t="n">
-        <v>12.061</v>
+        <v>2.347</v>
       </c>
     </row>
     <row r="5">
@@ -532,20 +532,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ДОЛ Заря</t>
+          <t>ДОЛ Лига</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-655.7022900763361</v>
+        <v>-1387.541666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3263358778625955</v>
+        <v>0.6916666666666665</v>
       </c>
       <c r="E5" t="n">
-        <v>1.168</v>
+        <v>36.917</v>
       </c>
       <c r="F5" t="n">
-        <v>0.908</v>
+        <v>4.916</v>
       </c>
     </row>
     <row r="6">
@@ -576,20 +576,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ржавая канава</t>
+          <t>Юнтолово - 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2015</v>
+        <v>1697.260714285715</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999999999998</v>
+        <v>-0.8392857142857144</v>
       </c>
       <c r="E7" t="n">
-        <v>16.745</v>
+        <v>4.127</v>
       </c>
       <c r="F7" t="n">
-        <v>3.35</v>
+        <v>1.559</v>
       </c>
     </row>
     <row r="8">
@@ -598,20 +598,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Разлив 1</t>
+          <t>ДОЛ Луч</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1567.770531835207</v>
+        <v>133.4198264669164</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7805505617977533</v>
+        <v>-0.06344007490636704</v>
       </c>
       <c r="E8" t="n">
-        <v>13.695</v>
+        <v>12.876</v>
       </c>
       <c r="F8" t="n">
-        <v>3.14</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="9">
@@ -642,20 +642,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ДОЛ Молодежный</t>
+          <t>Сан. Солнечное</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-545.7692307692308</v>
+        <v>-1295.649011152416</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2728365384615385</v>
+        <v>0.6451078066914496</v>
       </c>
       <c r="E10" t="n">
-        <v>4.343</v>
+        <v>17.113</v>
       </c>
       <c r="F10" t="n">
-        <v>1.907</v>
+        <v>3.538</v>
       </c>
     </row>
     <row r="11">
@@ -664,20 +664,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Санаторий Чайка</t>
+          <t>Ст. Морская 1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-598.6333891752578</v>
+        <v>76.25237203495639</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2985231958762887</v>
+        <v>-0.03661048689138581</v>
       </c>
       <c r="E11" t="n">
-        <v>18.532</v>
+        <v>2.297</v>
       </c>
       <c r="F11" t="n">
-        <v>3.78</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="12">
@@ -686,20 +686,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ГБДОУ №20</t>
+          <t>Пляж Ласковый</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-984.092331768388</v>
+        <v>3318.452142857143</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4898278560250391</v>
+        <v>-1.638571428571429</v>
       </c>
       <c r="E12" t="n">
-        <v>6.08</v>
+        <v>0.695</v>
       </c>
       <c r="F12" t="n">
-        <v>1.673</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="13">
@@ -708,20 +708,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Репино, Лермонтовский пр</t>
+          <t>Юнтолово - 1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2319.285714285715</v>
+        <v>-191.4909687184663</v>
       </c>
       <c r="D13" t="n">
-        <v>1.151785714285714</v>
+        <v>0.0957618567103936</v>
       </c>
       <c r="E13" t="n">
-        <v>13.048</v>
+        <v>1.534</v>
       </c>
       <c r="F13" t="n">
-        <v>3.61</v>
+        <v>1.101</v>
       </c>
     </row>
     <row r="14">
@@ -730,20 +730,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ДОЛ Лига</t>
+          <t>Санаторий Пионер</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1387.541666666667</v>
+        <v>-212.8836956521738</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6916666666666665</v>
+        <v>0.1064009661835748</v>
       </c>
       <c r="E14" t="n">
-        <v>36.917</v>
+        <v>2.902</v>
       </c>
       <c r="F14" t="n">
-        <v>4.916</v>
+        <v>1.473</v>
       </c>
     </row>
     <row r="15">
@@ -752,20 +752,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Парашютная улица </t>
+          <t>Санаторий Жемчужина</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-377.15433632287</v>
+        <v>136.9976065573771</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1887174887892377</v>
+        <v>-0.0653081967213115</v>
       </c>
       <c r="E15" t="n">
-        <v>28.904</v>
+        <v>12.468</v>
       </c>
       <c r="F15" t="n">
-        <v>3.811</v>
+        <v>3.265</v>
       </c>
     </row>
     <row r="16">
@@ -774,20 +774,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Сан. Солнечное</t>
+          <t>Разлив 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1295.649011152416</v>
+        <v>1241.671641791045</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6451078066914496</v>
+        <v>-0.6149253731343283</v>
       </c>
       <c r="E16" t="n">
-        <v>17.113</v>
+        <v>8.583</v>
       </c>
       <c r="F16" t="n">
-        <v>3.538</v>
+        <v>2.429</v>
       </c>
     </row>
     <row r="17">
@@ -796,20 +796,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ДОЛ Луч</t>
+          <t>Зеленогорск, ул.Экипажная</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>133.4198264669164</v>
+        <v>-613.3943298969073</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.06344007490636704</v>
+        <v>0.3064432989690722</v>
       </c>
       <c r="E17" t="n">
-        <v>12.876</v>
+        <v>7.345</v>
       </c>
       <c r="F17" t="n">
-        <v>3.09</v>
+        <v>2.458</v>
       </c>
     </row>
     <row r="18">
@@ -818,20 +818,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Солнечное - 2 </t>
+          <t>Репино, Лермонтовский пр</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-888.8235294117646</v>
+        <v>-2319.285714285715</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4411764705882353</v>
+        <v>1.151785714285714</v>
       </c>
       <c r="E18" t="n">
-        <v>4.044</v>
+        <v>13.048</v>
       </c>
       <c r="F18" t="n">
-        <v>1.662</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="19">
@@ -840,20 +840,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Санаторий Жемчужина</t>
+          <t>Лисий нос</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>136.9976065573771</v>
+        <v>631.0608969072166</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0653081967213115</v>
+        <v>-0.312298969072165</v>
       </c>
       <c r="E19" t="n">
-        <v>12.468</v>
+        <v>1.015</v>
       </c>
       <c r="F19" t="n">
-        <v>3.265</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="20">
@@ -862,20 +862,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Разлив 2</t>
+          <t>ДОЛ Заря</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1241.671641791045</v>
+        <v>-655.7022900763361</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.6149253731343283</v>
+        <v>0.3263358778625955</v>
       </c>
       <c r="E20" t="n">
-        <v>8.583</v>
+        <v>1.168</v>
       </c>
       <c r="F20" t="n">
-        <v>2.429</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="21">
@@ -884,20 +884,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Лисий нос</t>
+          <t xml:space="preserve">Парашютная улица </t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>631.0608969072166</v>
+        <v>-377.15433632287</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.312298969072165</v>
+        <v>0.1887174887892377</v>
       </c>
       <c r="E21" t="n">
-        <v>1.015</v>
+        <v>28.904</v>
       </c>
       <c r="F21" t="n">
-        <v>0.827</v>
+        <v>3.811</v>
       </c>
     </row>
     <row r="22">
@@ -906,20 +906,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Тарховский лесопарк</t>
+          <t>ГБДОУ №20</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-1143.379166666667</v>
+        <v>-984.092331768388</v>
       </c>
       <c r="D22" t="n">
-        <v>0.56875</v>
+        <v>0.4898278560250391</v>
       </c>
       <c r="E22" t="n">
-        <v>0.342</v>
+        <v>6.08</v>
       </c>
       <c r="F22" t="n">
-        <v>0.531</v>
+        <v>1.673</v>
       </c>
     </row>
     <row r="23">
@@ -928,20 +928,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Юнтолово - 2</t>
+          <t xml:space="preserve">Ольгино - 1 </t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1697.260714285715</v>
+        <v>-521.1748387096773</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.8392857142857144</v>
+        <v>0.2594193548387096</v>
       </c>
       <c r="E23" t="n">
-        <v>4.127</v>
+        <v>2.282</v>
       </c>
       <c r="F23" t="n">
-        <v>1.559</v>
+        <v>1.482</v>
       </c>
     </row>
     <row r="24">
@@ -950,20 +950,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Юнтолово - 1</t>
+          <t>ДОЛ Буревестник</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-191.4909687184663</v>
+        <v>-1128.12602739726</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0957618567103936</v>
+        <v>0.5625570776255705</v>
       </c>
       <c r="E24" t="n">
-        <v>1.534</v>
+        <v>11.253</v>
       </c>
       <c r="F24" t="n">
-        <v>1.101</v>
+        <v>3.105</v>
       </c>
     </row>
     <row r="25">
@@ -972,20 +972,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ДОЛ Солнечный</t>
+          <t>Солнечное -1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-268.6628762541807</v>
+        <v>2021</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1344481605351171</v>
+        <v>-0.9999999999999998</v>
       </c>
       <c r="E25" t="n">
-        <v>2.806</v>
+        <v>0.5</v>
       </c>
       <c r="F25" t="n">
-        <v>1.497</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
@@ -994,20 +994,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>детсад № 80</t>
+          <t>Санаторий Звездочка</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-3191.479850746267</v>
+        <v>-405.5328638497653</v>
       </c>
       <c r="D26" t="n">
-        <v>1.588805970149253</v>
+        <v>0.2018779342723005</v>
       </c>
       <c r="E26" t="n">
-        <v>2.64</v>
+        <v>0.903</v>
       </c>
       <c r="F26" t="n">
-        <v>1.488</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="27">
@@ -1016,20 +1016,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Санаторий Пионер</t>
+          <t xml:space="preserve">Солнечное - 2 </t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-212.8836956521738</v>
+        <v>-888.8235294117646</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1064009661835748</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="E27" t="n">
-        <v>2.902</v>
+        <v>4.044</v>
       </c>
       <c r="F27" t="n">
-        <v>1.473</v>
+        <v>1.662</v>
       </c>
     </row>
     <row r="28">
@@ -1038,20 +1038,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ДОЛ Дружных</t>
+          <t>Тарховский лесопарк</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.25</v>
+        <v>-1143.379166666667</v>
       </c>
       <c r="D28" t="n">
-        <v>-0</v>
+        <v>0.56875</v>
       </c>
       <c r="E28" t="n">
-        <v>8.228999999999999</v>
+        <v>0.342</v>
       </c>
       <c r="F28" t="n">
-        <v>2.75</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="29">
@@ -1060,20 +1060,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Дубки</t>
+          <t>ДОЛ Солнечный</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-898.5535714285713</v>
+        <v>-268.6628762541807</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4464285714285714</v>
+        <v>0.1344481605351171</v>
       </c>
       <c r="E29" t="n">
-        <v>0.742</v>
+        <v>2.806</v>
       </c>
       <c r="F29" t="n">
-        <v>0.654</v>
+        <v>1.497</v>
       </c>
     </row>
     <row r="30">
@@ -1082,20 +1082,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ольгино - 1 </t>
+          <t>Санаторий Чайка</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-521.1748387096773</v>
+        <v>-598.6333891752578</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2594193548387096</v>
+        <v>0.2985231958762887</v>
       </c>
       <c r="E30" t="n">
-        <v>2.282</v>
+        <v>18.532</v>
       </c>
       <c r="F30" t="n">
-        <v>1.482</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="31">
@@ -1104,20 +1104,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ДОЛ Буревестник</t>
+          <t>Ржавая канава</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-1128.12602739726</v>
+        <v>-2015</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5625570776255705</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E31" t="n">
-        <v>11.253</v>
+        <v>16.745</v>
       </c>
       <c r="F31" t="n">
-        <v>3.105</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="32">
@@ -1126,20 +1126,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Санаторий Звездочка</t>
+          <t>ДОЛ Молодежный</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-405.5328638497653</v>
+        <v>-545.7692307692308</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2018779342723005</v>
+        <v>0.2728365384615385</v>
       </c>
       <c r="E32" t="n">
-        <v>0.903</v>
+        <v>4.343</v>
       </c>
       <c r="F32" t="n">
-        <v>0.73</v>
+        <v>1.907</v>
       </c>
     </row>
     <row r="33">
@@ -1148,20 +1148,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Зеленогорск, ул.Экипажная</t>
+          <t>Н.Белоостров</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-613.3943298969073</v>
+        <v>-333.3724226804122</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3064432989690722</v>
+        <v>0.1662371134020618</v>
       </c>
       <c r="E33" t="n">
-        <v>7.345</v>
+        <v>6.022</v>
       </c>
       <c r="F33" t="n">
-        <v>2.458</v>
+        <v>2.021</v>
       </c>
     </row>
     <row r="34">
@@ -1170,20 +1170,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Пляж Ласковый</t>
+          <t>Дубки</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3318.452142857143</v>
+        <v>-898.5535714285713</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.638571428571429</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E34" t="n">
-        <v>0.695</v>
+        <v>0.742</v>
       </c>
       <c r="F34" t="n">
-        <v>0.799</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="35">
@@ -1192,20 +1192,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Н.Белоостров</t>
+          <t>Разлив 1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-333.3724226804122</v>
+        <v>-1567.770531835207</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1662371134020618</v>
+        <v>0.7805505617977533</v>
       </c>
       <c r="E35" t="n">
-        <v>6.022</v>
+        <v>13.695</v>
       </c>
       <c r="F35" t="n">
-        <v>2.021</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="36">
@@ -1214,20 +1214,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Солнечное -1</t>
+          <t>ДОЛ Дружных</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2021</v>
+        <v>1.25</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.9999999999999998</v>
+        <v>-0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>8.228999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Regression_results.xlsx
+++ b/Results/Regression_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,22 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>trend</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>mad</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R^2</t>
         </is>
       </c>
     </row>
@@ -466,20 +476,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Юный строитель</t>
+          <t>Санаторий Жемчужина</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-815.0169827856027</v>
+        <v>136.998</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4085133020344289</v>
-      </c>
-      <c r="E2" t="n">
-        <v>210.154</v>
+        <v>-0.065</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>убыв.</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>12.061</v>
+        <v>12.468</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.265</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.079</v>
       </c>
     </row>
     <row r="3">
@@ -488,20 +506,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>детсад № 80</t>
+          <t xml:space="preserve">Ольгино - 1 </t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3191.479850746267</v>
+        <v>-521.175</v>
       </c>
       <c r="D3" t="n">
-        <v>1.588805970149253</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.64</v>
+        <v>0.259</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>1.488</v>
+        <v>2.282</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.482</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.922</v>
       </c>
     </row>
     <row r="4">
@@ -510,20 +536,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ласточка</t>
+          <t>Зеленогорск, ул.Экипажная</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1625.426857142857</v>
+        <v>-613.394</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8021428571428573</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6.828</v>
+        <v>0.306</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>2.347</v>
+        <v>7.345</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.458</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -532,20 +566,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ДОЛ Лига</t>
+          <t>ДОЛ Луч</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1387.541666666667</v>
+        <v>133.42</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6916666666666665</v>
-      </c>
-      <c r="E5" t="n">
-        <v>36.917</v>
+        <v>-0.063</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>убыв.</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>4.916</v>
+        <v>12.876</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-1.16</v>
       </c>
     </row>
     <row r="6">
@@ -554,20 +596,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Солнечное-3</t>
+          <t>ДОЛ Солнечный</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1130.800328358208</v>
+        <v>-268.663</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5642985074626863</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.706</v>
+        <v>0.134</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>2.684</v>
+        <v>2.806</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-6.473</v>
       </c>
     </row>
     <row r="7">
@@ -576,20 +626,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Юнтолово - 2</t>
+          <t>ДОЛ Лига</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1697.260714285715</v>
+        <v>-1387.542</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8392857142857144</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.127</v>
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>1.559</v>
+        <v>36.917</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.916</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-5.021</v>
       </c>
     </row>
     <row r="8">
@@ -598,20 +656,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ДОЛ Луч</t>
+          <t>Тарховский лесопарк</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>133.4198264669164</v>
+        <v>-1143.379</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.06344007490636704</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12.876</v>
+        <v>0.569</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>3.09</v>
+        <v>0.342</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -620,20 +686,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Белоостровско-Сестрорецкая развязка</t>
+          <t>Пляж Ласковый</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>705.8499999999999</v>
+        <v>3318.452</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.35</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.793</v>
+        <v>-1.639</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>убыв.</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>1.3</v>
+        <v>0.695</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.963</v>
       </c>
     </row>
     <row r="10">
@@ -642,20 +716,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Сан. Солнечное</t>
+          <t>Солнечное-3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1295.649011152416</v>
+        <v>-1130.8</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6451078066914496</v>
-      </c>
-      <c r="E10" t="n">
-        <v>17.113</v>
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>3.538</v>
+        <v>7.706</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.684</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1.785</v>
       </c>
     </row>
     <row r="11">
@@ -664,20 +746,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ст. Морская 1</t>
+          <t>ДОЛ Буревестник</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>76.25237203495639</v>
+        <v>-1128.126</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.03661048689138581</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.297</v>
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>1.38</v>
+        <v>11.253</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1.273</v>
       </c>
     </row>
     <row r="12">
@@ -686,20 +776,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Пляж Ласковый</t>
+          <t>Юнтолово - 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3318.452142857143</v>
+        <v>1697.261</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.638571428571429</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.695</v>
+        <v>-0.839</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>убыв.</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>0.799</v>
+        <v>4.127</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.559</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-6.961</v>
       </c>
     </row>
     <row r="13">
@@ -708,20 +806,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Юнтолово - 1</t>
+          <t>Санаторий Чайка</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-191.4909687184663</v>
+        <v>-598.633</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0957618567103936</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.534</v>
+        <v>0.299</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>1.101</v>
+        <v>18.532</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.073</v>
       </c>
     </row>
     <row r="14">
@@ -730,20 +836,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Санаторий Пионер</t>
+          <t>Дубки</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-212.8836956521738</v>
+        <v>-898.554</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1064009661835748</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.902</v>
+        <v>0.446</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>1.473</v>
+        <v>0.742</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.387</v>
       </c>
     </row>
     <row r="15">
@@ -752,20 +866,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Санаторий Жемчужина</t>
+          <t>ДОЛ Молодежный</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>136.9976065573771</v>
+        <v>-545.769</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0653081967213115</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12.468</v>
+        <v>0.273</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>3.265</v>
+        <v>4.343</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.218</v>
       </c>
     </row>
     <row r="16">
@@ -774,20 +896,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Разлив 2</t>
+          <t xml:space="preserve">Солнечное - 2 </t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1241.671641791045</v>
+        <v>-888.824</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.6149253731343283</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.583</v>
+        <v>0.441</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F16" t="n">
-        <v>2.429</v>
+        <v>4.044</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.662</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-3.044</v>
       </c>
     </row>
     <row r="17">
@@ -796,20 +926,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Зеленогорск, ул.Экипажная</t>
+          <t>Н.Белоостров</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-613.3943298969073</v>
+        <v>-333.372</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3064432989690722</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7.345</v>
+        <v>0.166</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F17" t="n">
-        <v>2.458</v>
+        <v>6.022</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.021</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.062</v>
       </c>
     </row>
     <row r="18">
@@ -818,20 +956,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Репино, Лермонтовский пр</t>
+          <t>Санаторий Звездочка</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-2319.285714285715</v>
+        <v>-405.533</v>
       </c>
       <c r="D18" t="n">
-        <v>1.151785714285714</v>
-      </c>
-      <c r="E18" t="n">
-        <v>13.048</v>
+        <v>0.202</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F18" t="n">
-        <v>3.61</v>
+        <v>0.903</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.627</v>
       </c>
     </row>
     <row r="19">
@@ -840,20 +986,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Лисий нос</t>
+          <t>Ласточка</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>631.0608969072166</v>
+        <v>1625.427</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.312298969072165</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.015</v>
+        <v>-0.802</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>убыв.</t>
+        </is>
       </c>
       <c r="F19" t="n">
-        <v>0.827</v>
+        <v>6.828</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.347</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.796</v>
       </c>
     </row>
     <row r="20">
@@ -862,20 +1016,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ДОЛ Заря</t>
+          <t>детсад № 80</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-655.7022900763361</v>
+        <v>-3191.48</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3263358778625955</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.168</v>
+        <v>1.589</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F20" t="n">
-        <v>0.908</v>
+        <v>2.64</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.677</v>
       </c>
     </row>
     <row r="21">
@@ -884,20 +1046,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Парашютная улица </t>
+          <t>Репино, Лермонтовский пр</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-377.15433632287</v>
+        <v>-2319.286</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1887174887892377</v>
-      </c>
-      <c r="E21" t="n">
-        <v>28.904</v>
+        <v>1.152</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F21" t="n">
-        <v>3.811</v>
+        <v>13.048</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.397</v>
       </c>
     </row>
     <row r="22">
@@ -906,20 +1076,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ГБДОУ №20</t>
+          <t>Солнечное -1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-984.092331768388</v>
+        <v>2021</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4898278560250391</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6.08</v>
+        <v>-1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>убыв.</t>
+        </is>
       </c>
       <c r="F22" t="n">
-        <v>1.673</v>
+        <v>0.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
@@ -928,20 +1106,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ольгино - 1 </t>
+          <t>Белоостровско-Сестрорецкая развязка</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-521.1748387096773</v>
+        <v>705.85</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2594193548387096</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2.282</v>
+        <v>-0.35</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>убыв.</t>
+        </is>
       </c>
       <c r="F23" t="n">
-        <v>1.482</v>
+        <v>2.793</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.302</v>
       </c>
     </row>
     <row r="24">
@@ -950,20 +1136,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ДОЛ Буревестник</t>
+          <t>ДОЛ Дружных</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-1128.12602739726</v>
+        <v>1.25</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5625570776255705</v>
-      </c>
-      <c r="E24" t="n">
-        <v>11.253</v>
+        <v>-0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>убыв.</t>
+        </is>
       </c>
       <c r="F24" t="n">
-        <v>3.105</v>
+        <v>8.228999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-11.344</v>
       </c>
     </row>
     <row r="25">
@@ -972,20 +1166,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Солнечное -1</t>
+          <t xml:space="preserve">Парашютная улица </t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2021</v>
+        <v>-377.154</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.9999999999999998</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.5</v>
+        <v>0.189</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F25" t="n">
-        <v>0.5</v>
+        <v>28.904</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.429</v>
       </c>
     </row>
     <row r="26">
@@ -994,20 +1196,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Санаторий Звездочка</t>
+          <t>Юнтолово - 1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-405.5328638497653</v>
+        <v>-191.491</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2018779342723005</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.903</v>
+        <v>0.096</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F26" t="n">
-        <v>0.73</v>
+        <v>1.534</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1.831</v>
       </c>
     </row>
     <row r="27">
@@ -1016,20 +1226,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Солнечное - 2 </t>
+          <t>Разлив 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-888.8235294117646</v>
+        <v>1241.672</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4411764705882353</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4.044</v>
+        <v>-0.615</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>убыв.</t>
+        </is>
       </c>
       <c r="F27" t="n">
-        <v>1.662</v>
+        <v>8.583</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.429</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-34.193</v>
       </c>
     </row>
     <row r="28">
@@ -1038,20 +1256,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Тарховский лесопарк</t>
+          <t>ГБДОУ №20</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-1143.379166666667</v>
+        <v>-984.092</v>
       </c>
       <c r="D28" t="n">
-        <v>0.56875</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.342</v>
+        <v>0.49</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F28" t="n">
-        <v>0.531</v>
+        <v>6.08</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1.076</v>
       </c>
     </row>
     <row r="29">
@@ -1060,20 +1286,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ДОЛ Солнечный</t>
+          <t>Ржавая канава</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-268.6628762541807</v>
+        <v>-2015</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1344481605351171</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2.806</v>
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F29" t="n">
-        <v>1.497</v>
+        <v>16.745</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-3.893</v>
       </c>
     </row>
     <row r="30">
@@ -1082,20 +1316,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Санаторий Чайка</t>
+          <t>Сан. Солнечное</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-598.6333891752578</v>
+        <v>-1295.649</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2985231958762887</v>
-      </c>
-      <c r="E30" t="n">
-        <v>18.532</v>
+        <v>0.645</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F30" t="n">
-        <v>3.78</v>
+        <v>17.113</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.538</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-36.261</v>
       </c>
     </row>
     <row r="31">
@@ -1104,20 +1346,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ржавая канава</t>
+          <t>Ст. Морская 1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-2015</v>
+        <v>76.252</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="E31" t="n">
-        <v>16.745</v>
+        <v>-0.037</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>убыв.</t>
+        </is>
       </c>
       <c r="F31" t="n">
-        <v>3.35</v>
+        <v>2.297</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-1.026</v>
       </c>
     </row>
     <row r="32">
@@ -1126,20 +1376,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ДОЛ Молодежный</t>
+          <t>Санаторий Пионер</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-545.7692307692308</v>
+        <v>-212.884</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2728365384615385</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4.343</v>
+        <v>0.106</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F32" t="n">
-        <v>1.907</v>
+        <v>2.902</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.052</v>
       </c>
     </row>
     <row r="33">
@@ -1148,20 +1406,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Н.Белоостров</t>
+          <t>ДОЛ Заря</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-333.3724226804122</v>
+        <v>-655.702</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1662371134020618</v>
-      </c>
-      <c r="E33" t="n">
-        <v>6.022</v>
+        <v>0.326</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F33" t="n">
-        <v>2.021</v>
+        <v>1.168</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.751</v>
       </c>
     </row>
     <row r="34">
@@ -1170,20 +1436,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Дубки</t>
+          <t>Юный строитель</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-898.5535714285713</v>
+        <v>-815.0170000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4464285714285714</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.742</v>
+        <v>0.409</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F34" t="n">
-        <v>0.654</v>
+        <v>210.154</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12.061</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="35">
@@ -1192,20 +1466,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Разлив 1</t>
+          <t>Лисий нос</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-1567.770531835207</v>
+        <v>631.061</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7805505617977533</v>
-      </c>
-      <c r="E35" t="n">
-        <v>13.695</v>
+        <v>-0.312</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>убыв.</t>
+        </is>
       </c>
       <c r="F35" t="n">
-        <v>3.14</v>
+        <v>1.015</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-1.451</v>
       </c>
     </row>
     <row r="36">
@@ -1214,20 +1496,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ДОЛ Дружных</t>
+          <t>Разлив 1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.25</v>
+        <v>-1567.771</v>
       </c>
       <c r="D36" t="n">
-        <v>-0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>8.228999999999999</v>
+        <v>0.781</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>возр.</t>
+        </is>
       </c>
       <c r="F36" t="n">
-        <v>2.75</v>
+        <v>13.695</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-14.091</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Regression_results.xlsx
+++ b/Results/Regression_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>R^2</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>coef. F</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -476,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Санаторий Жемчужина</t>
+          <t>Белоостровско-Сестрорецкая развязка</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>136.998</v>
+        <v>705.85</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.065</v>
+        <v>-0.35</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -491,13 +501,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12.468</v>
+        <v>2.793</v>
       </c>
       <c r="G2" t="n">
-        <v>3.265</v>
+        <v>1.3</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.079</v>
+        <v>0.302</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -506,14 +522,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ольгино - 1 </t>
+          <t>ГБДОУ №20</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-521.175</v>
+        <v>-984.092</v>
       </c>
       <c r="D3" t="n">
-        <v>0.259</v>
+        <v>0.49</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -521,13 +537,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.282</v>
+        <v>6.08</v>
       </c>
       <c r="G3" t="n">
-        <v>1.482</v>
+        <v>1.673</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.922</v>
+        <v>-1.076</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.711</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -536,14 +558,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Зеленогорск, ул.Экипажная</t>
+          <t>ДОЛ Буревестник</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-613.394</v>
+        <v>-1128.126</v>
       </c>
       <c r="D4" t="n">
-        <v>0.306</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,13 +573,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7.345</v>
+        <v>11.253</v>
       </c>
       <c r="G4" t="n">
-        <v>2.458</v>
+        <v>3.105</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>-1.273</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -566,14 +594,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ДОЛ Луч</t>
+          <t>ДОЛ Дружных</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>133.42</v>
+        <v>1.25</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.063</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -581,13 +609,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12.876</v>
+        <v>8.228999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>3.09</v>
+        <v>2.75</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.16</v>
+        <v>-11.344</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -596,14 +630,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ДОЛ Солнечный</t>
+          <t>ДОЛ Заря</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-268.663</v>
+        <v>-655.702</v>
       </c>
       <c r="D6" t="n">
-        <v>0.134</v>
+        <v>0.326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -611,13 +645,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.806</v>
+        <v>1.168</v>
       </c>
       <c r="G6" t="n">
-        <v>1.497</v>
+        <v>0.908</v>
       </c>
       <c r="H6" t="n">
-        <v>-6.473</v>
+        <v>-0.751</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.487</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -649,6 +689,12 @@
       <c r="H7" t="n">
         <v>-5.021</v>
       </c>
+      <c r="I7" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -656,28 +702,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Тарховский лесопарк</t>
+          <t>ДОЛ Луч</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1143.379</v>
+        <v>133.42</v>
       </c>
       <c r="D8" t="n">
-        <v>0.569</v>
+        <v>-0.063</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>возр.</t>
+          <t>убыв.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.342</v>
+        <v>12.876</v>
       </c>
       <c r="G8" t="n">
-        <v>0.531</v>
+        <v>3.09</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9379999999999999</v>
+        <v>-1.16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -686,28 +738,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Пляж Ласковый</t>
+          <t>ДОЛ Молодежный</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3318.452</v>
+        <v>-545.769</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.639</v>
+        <v>0.273</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>убыв.</t>
+          <t>возр.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.695</v>
+        <v>4.343</v>
       </c>
       <c r="G9" t="n">
-        <v>0.799</v>
+        <v>1.907</v>
       </c>
       <c r="H9" t="n">
-        <v>0.963</v>
+        <v>0.218</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.954</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -716,14 +774,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Солнечное-3</t>
+          <t>ДОЛ Солнечный</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1130.8</v>
+        <v>-268.663</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.134</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -731,13 +789,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.706</v>
+        <v>2.806</v>
       </c>
       <c r="G10" t="n">
-        <v>2.684</v>
+        <v>1.497</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.785</v>
+        <v>-6.473</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -746,14 +810,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ДОЛ Буревестник</t>
+          <t>Дубки</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1128.126</v>
+        <v>-898.554</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.446</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -761,13 +825,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>11.253</v>
+        <v>0.742</v>
       </c>
       <c r="G11" t="n">
-        <v>3.105</v>
+        <v>0.654</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.273</v>
+        <v>0.387</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -776,28 +846,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Юнтолово - 2</t>
+          <t>Зеленогорск, ул.Экипажная</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1697.261</v>
+        <v>-613.394</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.839</v>
+        <v>0.306</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>убыв.</t>
+          <t>возр.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.127</v>
+        <v>7.345</v>
       </c>
       <c r="G12" t="n">
-        <v>1.559</v>
+        <v>2.458</v>
       </c>
       <c r="H12" t="n">
-        <v>-6.961</v>
+        <v>0.01</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.951</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -806,28 +882,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Санаторий Чайка</t>
+          <t>Ласточка</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-598.633</v>
+        <v>1625.427</v>
       </c>
       <c r="D13" t="n">
-        <v>0.299</v>
+        <v>-0.802</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>возр.</t>
+          <t>убыв.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>18.532</v>
+        <v>6.828</v>
       </c>
       <c r="G13" t="n">
-        <v>3.78</v>
+        <v>2.347</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.073</v>
+        <v>-0.796</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.945</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -836,28 +918,34 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Дубки</t>
+          <t>Лисий нос</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-898.554</v>
+        <v>631.061</v>
       </c>
       <c r="D14" t="n">
-        <v>0.446</v>
+        <v>-0.312</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>возр.</t>
+          <t>убыв.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.742</v>
+        <v>1.015</v>
       </c>
       <c r="G14" t="n">
-        <v>0.654</v>
+        <v>0.827</v>
       </c>
       <c r="H14" t="n">
-        <v>0.387</v>
+        <v>-1.451</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.965</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -866,14 +954,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ДОЛ Молодежный</t>
+          <t>Н.Белоостров</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-545.769</v>
+        <v>-333.372</v>
       </c>
       <c r="D15" t="n">
-        <v>0.273</v>
+        <v>0.166</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -881,13 +969,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.343</v>
+        <v>6.022</v>
       </c>
       <c r="G15" t="n">
-        <v>1.907</v>
+        <v>2.021</v>
       </c>
       <c r="H15" t="n">
-        <v>0.218</v>
+        <v>-0.062</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.959</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -896,14 +990,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Солнечное - 2 </t>
+          <t xml:space="preserve">Ольгино - 1 </t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-888.824</v>
+        <v>-521.175</v>
       </c>
       <c r="D16" t="n">
-        <v>0.441</v>
+        <v>0.259</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -911,13 +1005,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.044</v>
+        <v>2.282</v>
       </c>
       <c r="G16" t="n">
-        <v>1.662</v>
+        <v>1.482</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.044</v>
+        <v>-0.922</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.928</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -926,14 +1026,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Н.Белоостров</t>
+          <t xml:space="preserve">Парашютная улица </t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-333.372</v>
+        <v>-377.154</v>
       </c>
       <c r="D17" t="n">
-        <v>0.166</v>
+        <v>0.189</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -941,13 +1041,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6.022</v>
+        <v>28.904</v>
       </c>
       <c r="G17" t="n">
-        <v>2.021</v>
+        <v>3.811</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.062</v>
+        <v>-0.429</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -956,28 +1062,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Санаторий Звездочка</t>
+          <t>Пляж Ласковый</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-405.533</v>
+        <v>3318.452</v>
       </c>
       <c r="D18" t="n">
-        <v>0.202</v>
+        <v>-1.639</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>возр.</t>
+          <t>убыв.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.903</v>
+        <v>0.695</v>
       </c>
       <c r="G18" t="n">
-        <v>0.73</v>
+        <v>0.799</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.627</v>
+        <v>0.963</v>
+      </c>
+      <c r="I18" t="n">
+        <v>35.807</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -986,28 +1098,34 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ласточка</t>
+          <t>Разлив 1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1625.427</v>
+        <v>-1567.771</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.802</v>
+        <v>0.781</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>убыв.</t>
+          <t>возр.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.828</v>
+        <v>13.695</v>
       </c>
       <c r="G19" t="n">
-        <v>2.347</v>
+        <v>3.14</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.796</v>
+        <v>-14.091</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.498</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -1016,28 +1134,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>детсад № 80</t>
+          <t>Разлив 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-3191.48</v>
+        <v>1241.672</v>
       </c>
       <c r="D20" t="n">
-        <v>1.589</v>
+        <v>-0.615</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>возр.</t>
+          <t>убыв.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.64</v>
+        <v>8.583</v>
       </c>
       <c r="G20" t="n">
-        <v>1.488</v>
+        <v>2.429</v>
       </c>
       <c r="H20" t="n">
-        <v>0.677</v>
+        <v>-34.193</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1069,6 +1193,12 @@
       <c r="H21" t="n">
         <v>-0.397</v>
       </c>
+      <c r="I21" t="n">
+        <v>7.549</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1076,28 +1206,34 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Солнечное -1</t>
+          <t>Ржавая канава</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2021</v>
+        <v>-2015</v>
       </c>
       <c r="D22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>убыв.</t>
+          <t>возр.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5</v>
+        <v>16.745</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>3.35</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5</v>
+        <v>-3.893</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.114</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1106,28 +1242,34 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Белоостровско-Сестрорецкая развязка</t>
+          <t>Сан. Солнечное</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>705.85</v>
+        <v>-1295.649</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.35</v>
+        <v>0.645</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>убыв.</t>
+          <t>возр.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.793</v>
+        <v>17.113</v>
       </c>
       <c r="G23" t="n">
-        <v>1.3</v>
+        <v>3.538</v>
       </c>
       <c r="H23" t="n">
-        <v>0.302</v>
+        <v>-36.261</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.291</v>
+      </c>
+      <c r="J23" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1136,14 +1278,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ДОЛ Дружных</t>
+          <t>Санаторий Жемчужина</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.25</v>
+        <v>136.998</v>
       </c>
       <c r="D24" t="n">
-        <v>-0</v>
+        <v>-0.065</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1151,13 +1293,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>8.228999999999999</v>
+        <v>12.468</v>
       </c>
       <c r="G24" t="n">
-        <v>2.75</v>
+        <v>3.265</v>
       </c>
       <c r="H24" t="n">
-        <v>-11.344</v>
+        <v>-0.079</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1166,14 +1314,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Парашютная улица </t>
+          <t>Санаторий Звездочка</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-377.154</v>
+        <v>-405.533</v>
       </c>
       <c r="D25" t="n">
-        <v>0.189</v>
+        <v>0.202</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1181,13 +1329,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>28.904</v>
+        <v>0.903</v>
       </c>
       <c r="G25" t="n">
-        <v>3.811</v>
+        <v>0.73</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.429</v>
+        <v>-0.627</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.827</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1196,14 +1350,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Юнтолово - 1</t>
+          <t>Санаторий Пионер</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-191.491</v>
+        <v>-212.884</v>
       </c>
       <c r="D26" t="n">
-        <v>0.096</v>
+        <v>0.106</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1211,13 +1365,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.534</v>
+        <v>2.902</v>
       </c>
       <c r="G26" t="n">
-        <v>1.101</v>
+        <v>1.473</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.831</v>
+        <v>0.052</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.599</v>
+      </c>
+      <c r="J26" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1226,28 +1386,34 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Разлив 2</t>
+          <t>Санаторий Чайка</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1241.672</v>
+        <v>-598.633</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.615</v>
+        <v>0.299</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>убыв.</t>
+          <t>возр.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>8.583</v>
+        <v>18.532</v>
       </c>
       <c r="G27" t="n">
-        <v>2.429</v>
+        <v>3.78</v>
       </c>
       <c r="H27" t="n">
-        <v>-34.193</v>
+        <v>-0.073</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.447</v>
+      </c>
+      <c r="J27" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1256,14 +1422,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ГБДОУ №20</t>
+          <t xml:space="preserve">Солнечное - 2 </t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-984.092</v>
+        <v>-888.824</v>
       </c>
       <c r="D28" t="n">
-        <v>0.49</v>
+        <v>0.441</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1271,13 +1437,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6.08</v>
+        <v>4.044</v>
       </c>
       <c r="G28" t="n">
-        <v>1.673</v>
+        <v>1.662</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.076</v>
+        <v>-3.044</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1286,28 +1458,34 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ржавая канава</t>
+          <t>Солнечное -1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-2015</v>
+        <v>2021</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>возр.</t>
+          <t>убыв.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>16.745</v>
+        <v>0.5</v>
       </c>
       <c r="G29" t="n">
-        <v>3.35</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.893</v>
+        <v>0.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>63</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1316,14 +1494,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Сан. Солнечное</t>
+          <t>Солнечное-3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-1295.649</v>
+        <v>-1130.8</v>
       </c>
       <c r="D30" t="n">
-        <v>0.645</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1331,13 +1509,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>17.113</v>
+        <v>7.706</v>
       </c>
       <c r="G30" t="n">
-        <v>3.538</v>
+        <v>2.684</v>
       </c>
       <c r="H30" t="n">
-        <v>-36.261</v>
+        <v>-1.785</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="J30" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1369,6 +1553,12 @@
       <c r="H31" t="n">
         <v>-1.026</v>
       </c>
+      <c r="I31" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J31" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1376,14 +1566,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Санаторий Пионер</t>
+          <t>Тарховский лесопарк</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-212.884</v>
+        <v>-1143.379</v>
       </c>
       <c r="D32" t="n">
-        <v>0.106</v>
+        <v>0.569</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1391,13 +1581,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.902</v>
+        <v>0.342</v>
       </c>
       <c r="G32" t="n">
-        <v>1.473</v>
+        <v>0.531</v>
       </c>
       <c r="H32" t="n">
-        <v>0.052</v>
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="I32" t="n">
+        <v>18.369</v>
+      </c>
+      <c r="J32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1406,14 +1602,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ДОЛ Заря</t>
+          <t>Юнтолово - 1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-655.702</v>
+        <v>-191.491</v>
       </c>
       <c r="D33" t="n">
-        <v>0.326</v>
+        <v>0.096</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1421,13 +1617,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.168</v>
+        <v>1.534</v>
       </c>
       <c r="G33" t="n">
-        <v>0.908</v>
+        <v>1.101</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.751</v>
+        <v>-1.831</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="J33" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1436,28 +1638,34 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Юный строитель</t>
+          <t>Юнтолово - 2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-815.0170000000001</v>
+        <v>1697.261</v>
       </c>
       <c r="D34" t="n">
-        <v>0.409</v>
+        <v>-0.839</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>возр.</t>
+          <t>убыв.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>210.154</v>
+        <v>4.127</v>
       </c>
       <c r="G34" t="n">
-        <v>12.061</v>
+        <v>1.559</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.29</v>
+        <v>-6.961</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1466,28 +1674,34 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Лисий нос</t>
+          <t>Юный строитель</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>631.061</v>
+        <v>-815.0170000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.312</v>
+        <v>0.409</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>убыв.</t>
+          <t>возр.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.015</v>
+        <v>210.154</v>
       </c>
       <c r="G35" t="n">
-        <v>0.827</v>
+        <v>12.061</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.451</v>
+        <v>-0.29</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="J35" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1496,14 +1710,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Разлив 1</t>
+          <t>детсад № 80</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-1567.771</v>
+        <v>-3191.48</v>
       </c>
       <c r="D36" t="n">
-        <v>0.781</v>
+        <v>1.589</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1511,13 +1725,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>13.695</v>
+        <v>2.64</v>
       </c>
       <c r="G36" t="n">
-        <v>3.14</v>
+        <v>1.488</v>
       </c>
       <c r="H36" t="n">
-        <v>-14.091</v>
+        <v>0.677</v>
+      </c>
+      <c r="I36" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="J36" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
